--- a/test.xlsx
+++ b/test.xlsx
@@ -1,36 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frip\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="18315" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>dasd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xcas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>bob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fucking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>465aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,12 +115,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -106,39 +133,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,7 +200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,166 +244,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -384,84 +387,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>123123</v>
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>123123</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>12312</v>
-      </c>
-      <c r="C2">
-        <v>32131</v>
+        <v>1234567</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>18810541532</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>13221</v>
+      <c r="B4">
+        <v>13310001000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,60 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="18315" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>asda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>bob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fucking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>465aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,39 +122,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,142 +233,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -387,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -398,47 +411,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1234567</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+        <v>13312341234</v>
+      </c>
+      <c r="C2">
+        <v>32131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>18810541532</v>
+      <c r="A3">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>13310001000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>13221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,29 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frip\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="18315" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>asda</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>bob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -31,19 +86,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xcas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bob</t>
+    <t>asdasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friparia@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asjdsa;ldasj;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>620104199212020275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500221199203222415</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +137,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -85,18 +169,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -122,39 +216,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,183 +327,161 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -417,70 +489,107 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>18810541532</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>13312341234</v>
-      </c>
-      <c r="C2">
-        <v>32131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>13221</v>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>12213</v>
+      </c>
+      <c r="F3">
+        <v>130211</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>